--- a/jpcore-r4/feature/swg3-医療機関コード説明見直し/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/feature/swg3-医療機関コード説明見直し/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -755,7 +755,7 @@
     <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/IdSystem/resourceInstance-identifier</t>
+    <t>http://jpfhir.jp/fhir/core/IdSystem/resourceInstance-identifier</t>
   </si>
   <si>
     <t>The value that is unique</t>
@@ -866,7 +866,7 @@
     <t>薬剤が投与あるいはその他の用途で利用されると想定される場面についての区分である。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationCategoryInjeciton_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationCategoryInjeciton_VS</t>
   </si>
   <si>
     <t>Message/Body/NewRx/MedicationPrescribed/Directions@@ -1169,7 +1169,7 @@
     <t>Performerを示さずにこのエレメントが指定された場合は、このエレメントは薬剤の投与／管理が指定の職種でなければならないと言うことを示している。Performerと共に指定された場合は、もし指定されたPerformerが実施できない場合に薬剤投与・管理を行うものについての要件が示されたことを意味する。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_PractitionerRole_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_PractitionerRole_VS</t>
   </si>
   <si>
     <t>Request.performerType</t>
@@ -1867,7 +1867,7 @@
     <t>代替品が許可されるかどうかは無視できないので、このエレメントはmodifierとしてラベルされる。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationSubstitutionNotAllowedReason_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationSubstitutionNotAllowedReason_VS</t>
   </si>
   <si>
     <t>code</t>
@@ -2304,7 +2304,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="121.76953125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="79.796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="75.55078125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
